--- a/excel/BG-TP-S2/BG-TP-S2.xlsx
+++ b/excel/BG-TP-S2/BG-TP-S2.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\Downloads\backendBulletin-main\backendBulletin-main\excel\BG-TP-S2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\Desktop\backendespi\excel\BG-TP-S2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87093B1F-A3CA-4F81-BB08-5D200926F6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E32B5BD-C3FB-4C60-A09F-AE1F04CFD8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="3264" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53880" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,9 +36,6 @@
     <t>Real Estate English &amp; TOEFL</t>
   </si>
   <si>
-    <t>Code Apprenant</t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Retards</t>
+  </si>
+  <si>
+    <t>CodeApprenant</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,43 +677,43 @@
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1172,14 +1172,14 @@
       <formula>"Nom"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F32">
+  <conditionalFormatting sqref="F19:G32">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND(COUNTIF(#REF!, F19)+COUNTIF(#REF!, F19)+COUNTIF(#REF!, F19)&gt;1,NOT(ISBLANK(F19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G32 I19:J32 L19:L32">
+  <conditionalFormatting sqref="I19:J32 L19:L32">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>AND(COUNTIF(#REF!, G19)+COUNTIF(#REF!, G19)+COUNTIF(#REF!, G19)&gt;1,NOT(ISBLANK(G19)))</formula>
+      <formula>AND(COUNTIF(#REF!, I19)+COUNTIF(#REF!, I19)+COUNTIF(#REF!, I19)&gt;1,NOT(ISBLANK(I19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
